--- a/Code/Results/Cases/Case_3_212/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_212/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.473710975632514</v>
+        <v>1.196211060729013</v>
       </c>
       <c r="C2">
-        <v>1.051379619328998</v>
+        <v>0.4980466827144596</v>
       </c>
       <c r="D2">
-        <v>0.009926746378575935</v>
+        <v>0.07411838026734685</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.910406698154446</v>
+        <v>3.028188097594182</v>
       </c>
       <c r="G2">
-        <v>0.00080419121655118</v>
+        <v>0.002529173596291174</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.378071028831982</v>
+        <v>1.471627885806498</v>
       </c>
       <c r="J2">
-        <v>0.1344935933273632</v>
+        <v>0.2266497200932918</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7451719054059822</v>
+        <v>0.5354950194227683</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.134774084737444</v>
+        <v>1.113636235484307</v>
       </c>
       <c r="C3">
-        <v>0.9069889730506873</v>
+        <v>0.4632007383351606</v>
       </c>
       <c r="D3">
-        <v>0.009601541472827435</v>
+        <v>0.07434240588349539</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.655515000876008</v>
+        <v>2.979661089094506</v>
       </c>
       <c r="G3">
-        <v>0.0008135326686897687</v>
+        <v>0.002534834543910352</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.277479237532887</v>
+        <v>1.452773543071089</v>
       </c>
       <c r="J3">
-        <v>0.1268041847834809</v>
+        <v>0.2260065236847808</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6482954780171255</v>
+        <v>0.5143002962252012</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.929923547054671</v>
+        <v>1.063683016812433</v>
       </c>
       <c r="C4">
-        <v>0.8200764166831505</v>
+        <v>0.4421243483516264</v>
       </c>
       <c r="D4">
-        <v>0.009411347900488032</v>
+        <v>0.07449433125143745</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.505191576720847</v>
+        <v>2.951500897638425</v>
       </c>
       <c r="G4">
-        <v>0.0008194093087591066</v>
+        <v>0.002538491149949646</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.218690790635094</v>
+        <v>1.44194221481429</v>
       </c>
       <c r="J4">
-        <v>0.1223226920100018</v>
+        <v>0.2257069101020335</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5899635510984709</v>
+        <v>0.5016328447759335</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.847144964424416</v>
+        <v>1.04351401761599</v>
       </c>
       <c r="C5">
-        <v>0.7850356099766316</v>
+        <v>0.4336150654655171</v>
       </c>
       <c r="D5">
-        <v>0.009335999265222661</v>
+        <v>0.07455987711947554</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.445330267731634</v>
+        <v>2.940434067679391</v>
       </c>
       <c r="G5">
-        <v>0.0008218416007554907</v>
+        <v>0.002540026861854819</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.195409287239059</v>
+        <v>1.437714385395665</v>
       </c>
       <c r="J5">
-        <v>0.1205517342907498</v>
+        <v>0.2256087264110462</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5664452344328978</v>
+        <v>0.4965575759082483</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.833438614392492</v>
+        <v>1.040176264269519</v>
       </c>
       <c r="C6">
-        <v>0.7792381699256623</v>
+        <v>0.4322068869024633</v>
       </c>
       <c r="D6">
-        <v>0.009323612016157945</v>
+        <v>0.07457098112943417</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.435470356704087</v>
+        <v>2.938621036265559</v>
       </c>
       <c r="G6">
-        <v>0.000822247804066859</v>
+        <v>0.002540284625710647</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.191582185078801</v>
+        <v>1.43702355242521</v>
       </c>
       <c r="J6">
-        <v>0.1202608687679927</v>
+        <v>0.2255938656603291</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5625542660480249</v>
+        <v>0.4957200685592085</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.928804483249905</v>
+        <v>1.063410253078985</v>
       </c>
       <c r="C7">
-        <v>0.8196023960315699</v>
+        <v>0.4420092681843641</v>
       </c>
       <c r="D7">
-        <v>0.009410323262649456</v>
+        <v>0.07449520047845848</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.504378809099478</v>
+        <v>2.951349995251647</v>
       </c>
       <c r="G7">
-        <v>0.0008194419570731097</v>
+        <v>0.002538511676249784</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.218374165714067</v>
+        <v>1.441884445477456</v>
       </c>
       <c r="J7">
-        <v>0.1222985907180103</v>
+        <v>0.2257054892190098</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.589645399155458</v>
+        <v>0.5015640466938294</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.356093668567723</v>
+        <v>1.167583503428489</v>
       </c>
       <c r="C8">
-        <v>1.001192706666018</v>
+        <v>0.4859650990424029</v>
       </c>
       <c r="D8">
-        <v>0.009812497350261573</v>
+        <v>0.07419265365118655</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.821137706061847</v>
+        <v>3.011114925163355</v>
       </c>
       <c r="G8">
-        <v>0.0008073841990749114</v>
+        <v>0.002531088071862427</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.342723466775226</v>
+        <v>1.464971371891266</v>
       </c>
       <c r="J8">
-        <v>0.1317893406742883</v>
+        <v>0.2264081296860496</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7115067710509635</v>
+        <v>0.5281150747095325</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.225934824501508</v>
+        <v>1.377850509083203</v>
       </c>
       <c r="C9">
-        <v>1.374267321879188</v>
+        <v>0.5747335072271085</v>
       </c>
       <c r="D9">
-        <v>0.01068914165376977</v>
+        <v>0.0737125043882747</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.499299789042084</v>
+        <v>3.14141830988865</v>
       </c>
       <c r="G9">
-        <v>0.0007847532132146222</v>
+        <v>0.002517957267249338</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.613854971503528</v>
+        <v>1.516224798044163</v>
       </c>
       <c r="J9">
-        <v>0.1525567046674539</v>
+        <v>0.22854509582654</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9614792118124811</v>
+        <v>0.5829429188821678</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.894148875061489</v>
+        <v>1.53606779350946</v>
       </c>
       <c r="C10">
-        <v>1.663723689357369</v>
+        <v>0.6415806582471077</v>
       </c>
       <c r="D10">
-        <v>0.01140918288109649</v>
+        <v>0.07342753965917126</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.044893146566437</v>
+        <v>3.245330336941265</v>
       </c>
       <c r="G10">
-        <v>0.0007685802555402993</v>
+        <v>0.00250916953943927</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.835502474236932</v>
+        <v>1.557623250504577</v>
       </c>
       <c r="J10">
-        <v>0.1695287192289427</v>
+        <v>0.2305822885474456</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.154821325530222</v>
+        <v>0.6249340860542105</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.207020091927291</v>
+        <v>1.608876237071399</v>
       </c>
       <c r="C11">
-        <v>1.800068469646305</v>
+        <v>0.6723588939865976</v>
       </c>
       <c r="D11">
-        <v>0.01175985774533661</v>
+        <v>0.07331238351497404</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.306696265510283</v>
+        <v>3.29442042220623</v>
       </c>
       <c r="G11">
-        <v>0.0007612783917665091</v>
+        <v>0.002505356181775876</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.942739998249834</v>
+        <v>1.577290488648856</v>
       </c>
       <c r="J11">
-        <v>0.1777268373208685</v>
+        <v>0.2316114979541553</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.245667298165031</v>
+        <v>0.6444141829459227</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.327026792365587</v>
+        <v>1.636568262021626</v>
       </c>
       <c r="C12">
-        <v>1.852501437407511</v>
+        <v>0.6840679036318988</v>
       </c>
       <c r="D12">
-        <v>0.01189668439585656</v>
+        <v>0.07327083921269839</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.408117704020185</v>
+        <v>3.313274462584502</v>
       </c>
       <c r="G12">
-        <v>0.0007585171247531696</v>
+        <v>0.002503938483345204</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.984420205788354</v>
+        <v>1.584859660669679</v>
       </c>
       <c r="J12">
-        <v>0.1809101872490047</v>
+        <v>0.2320160442033909</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.280561618752159</v>
+        <v>0.6518455675379329</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.30110880286162</v>
+        <v>1.630598888418547</v>
       </c>
       <c r="C13">
-        <v>1.841171081380935</v>
+        <v>0.6815437448105399</v>
       </c>
       <c r="D13">
-        <v>0.01186702395389627</v>
+        <v>0.07327969507062093</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.386167565284723</v>
+        <v>3.309202087643769</v>
       </c>
       <c r="G13">
-        <v>0.0007591117173331164</v>
+        <v>0.002504242641109639</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.975393327713149</v>
+        <v>1.583224070128821</v>
       </c>
       <c r="J13">
-        <v>0.1802209072213117</v>
+        <v>0.2319282582490985</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.2730232300664</v>
+        <v>0.6502426480350891</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.216860901639279</v>
+        <v>1.61115204457991</v>
       </c>
       <c r="C14">
-        <v>1.804365263309194</v>
+        <v>0.6733211147125644</v>
       </c>
       <c r="D14">
-        <v>0.01177102909736671</v>
+        <v>0.07330892440322856</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.31499248860456</v>
+        <v>3.29596623347561</v>
       </c>
       <c r="G14">
-        <v>0.0007610511707051508</v>
+        <v>0.002505239019896038</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.946146634679181</v>
+        <v>1.577910762631134</v>
       </c>
       <c r="J14">
-        <v>0.177987088040588</v>
+        <v>0.2316444830553976</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.248527714204755</v>
+        <v>0.6450244693612746</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.165463832832188</v>
+        <v>1.599256086600576</v>
       </c>
       <c r="C15">
-        <v>1.781929327929163</v>
+        <v>0.6682915699543059</v>
       </c>
       <c r="D15">
-        <v>0.01171277846359686</v>
+        <v>0.07332709630572865</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.271703410575867</v>
+        <v>3.28789345014718</v>
       </c>
       <c r="G15">
-        <v>0.0007622395014628136</v>
+        <v>0.002505852756110213</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.928376597428368</v>
+        <v>1.574672092918405</v>
       </c>
       <c r="J15">
-        <v>0.1766294143284952</v>
+        <v>0.2314725929758268</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.233590175119815</v>
+        <v>0.641835316962684</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.873901546699415</v>
+        <v>1.531326472081332</v>
       </c>
       <c r="C16">
-        <v>1.654917920624314</v>
+        <v>0.6395767307022311</v>
       </c>
       <c r="D16">
-        <v>0.01138678790082714</v>
+        <v>0.07343535505992804</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.02808427081294</v>
+        <v>3.242159061000933</v>
       </c>
       <c r="G16">
-        <v>0.0007690582201650242</v>
+        <v>0.002509422445640618</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.828635541154597</v>
+        <v>1.556354883247565</v>
       </c>
       <c r="J16">
-        <v>0.1690034025888991</v>
+        <v>0.2305170954477802</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.148948863860156</v>
+        <v>0.6236686516866428</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.697482596999976</v>
+        <v>1.489868336327845</v>
       </c>
       <c r="C17">
-        <v>1.578283392550475</v>
+        <v>0.622056269279085</v>
       </c>
       <c r="D17">
-        <v>0.01119318364525412</v>
+        <v>0.0735054623984368</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.882334240578786</v>
+        <v>3.214570744628134</v>
       </c>
       <c r="G17">
-        <v>0.0007732526709690432</v>
+        <v>0.002511659408873006</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.769189092115269</v>
+        <v>1.545332806784018</v>
       </c>
       <c r="J17">
-        <v>0.1644542123838804</v>
+        <v>0.2299572259997831</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.09781645404631</v>
+        <v>0.6126210584287435</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.596831565070261</v>
+        <v>1.466101205775885</v>
       </c>
       <c r="C18">
-        <v>1.534635862969935</v>
+        <v>0.6120136538362431</v>
       </c>
       <c r="D18">
-        <v>0.0110839536983347</v>
+        <v>0.07354714990478151</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.799761632971808</v>
+        <v>3.198873799975303</v>
       </c>
       <c r="G18">
-        <v>0.0007756706947603679</v>
+        <v>0.002512963400262926</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.735590120362389</v>
+        <v>1.53907168809755</v>
       </c>
       <c r="J18">
-        <v>0.1618818857826128</v>
+        <v>0.2296448455312046</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.068673592622751</v>
+        <v>0.6063023437313149</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.562886758805121</v>
+        <v>1.458067514239929</v>
       </c>
       <c r="C19">
-        <v>1.519927856393736</v>
+        <v>0.6086193284957631</v>
       </c>
       <c r="D19">
-        <v>0.011047316304027</v>
+        <v>0.07356149936039102</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.772011054555634</v>
+        <v>3.193588384920645</v>
       </c>
       <c r="G19">
-        <v>0.000776490455538327</v>
+        <v>0.002513407893841569</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.724311724949018</v>
+        <v>1.536965213929491</v>
       </c>
       <c r="J19">
-        <v>0.1610182513590388</v>
+        <v>0.2295407327060701</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.058850045033289</v>
+        <v>0.6041690348362039</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.716176087621022</v>
+        <v>1.494273494640026</v>
       </c>
       <c r="C20">
-        <v>1.586395817622645</v>
+        <v>0.6239177556628874</v>
       </c>
       <c r="D20">
-        <v>0.01121356845487131</v>
+        <v>0.07349785835992328</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.897717080279676</v>
+        <v>3.217489835725985</v>
       </c>
       <c r="G20">
-        <v>0.0007728056248818011</v>
+        <v>0.002511419485852959</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.775454872574471</v>
+        <v>1.546497991144193</v>
       </c>
       <c r="J20">
-        <v>0.1649338325409744</v>
+        <v>0.2300158266803294</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.103231417249006</v>
+        <v>0.6137934100609854</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.241562870625785</v>
+        <v>1.616860760361135</v>
       </c>
       <c r="C21">
-        <v>1.815153110406811</v>
+        <v>0.6757348289316951</v>
       </c>
       <c r="D21">
-        <v>0.01179910921444982</v>
+        <v>0.07330028320272497</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.33583355542703</v>
+        <v>3.299846717144192</v>
       </c>
       <c r="G21">
-        <v>0.000760481439583404</v>
+        <v>0.002504945645725121</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.954706702398809</v>
+        <v>1.57946809670608</v>
       </c>
       <c r="J21">
-        <v>0.1786409843277781</v>
+        <v>0.2317274322830798</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.255708592712466</v>
+        <v>0.6465556878802516</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.593991596793444</v>
+        <v>1.697684695031001</v>
       </c>
       <c r="C22">
-        <v>1.969411065572103</v>
+        <v>0.7099152233500945</v>
       </c>
       <c r="D22">
-        <v>0.01220575462371354</v>
+        <v>0.07318317176927991</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.635659432642086</v>
+        <v>3.355215926606689</v>
       </c>
       <c r="G22">
-        <v>0.0007524465612765644</v>
+        <v>0.002500868060832894</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.078191746356325</v>
+        <v>1.601725571143874</v>
       </c>
       <c r="J22">
-        <v>0.1880652044918918</v>
+        <v>0.2329324056115638</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.358278918535859</v>
+        <v>0.6682866931401321</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.404972044632132</v>
+        <v>1.654482481348566</v>
       </c>
       <c r="C23">
-        <v>1.886597156501125</v>
+        <v>0.6916433905000758</v>
       </c>
       <c r="D23">
-        <v>0.01198625100973683</v>
+        <v>0.07324458302940151</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.47428137422861</v>
+        <v>3.325522047049191</v>
       </c>
       <c r="G23">
-        <v>0.0007567346692281461</v>
+        <v>0.002503030355170584</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.01165014513704</v>
+        <v>1.589780889617884</v>
       </c>
       <c r="J23">
-        <v>0.182988902233518</v>
+        <v>0.2322813648995208</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.303239680649185</v>
+        <v>0.656659150877374</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.707722366251573</v>
+        <v>1.492281711761734</v>
       </c>
       <c r="C24">
-        <v>1.582726920662253</v>
+        <v>0.6230760838830633</v>
       </c>
       <c r="D24">
-        <v>0.01120434606810239</v>
+        <v>0.07350129184012033</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.890758719150995</v>
+        <v>3.216169604210592</v>
       </c>
       <c r="G24">
-        <v>0.0007730077137246432</v>
+        <v>0.002511527899286984</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.77262032522934</v>
+        <v>1.545970975873843</v>
       </c>
       <c r="J24">
-        <v>0.1647168628881133</v>
+        <v>0.2299893037405383</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.10078252737101</v>
+        <v>0.613263288078258</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.986277301842165</v>
+        <v>1.320318366065806</v>
       </c>
       <c r="C25">
-        <v>1.271045719049653</v>
+        <v>0.5504377488447858</v>
       </c>
       <c r="D25">
-        <v>0.01044054023484975</v>
+        <v>0.07383040765625104</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.308531940332642</v>
+        <v>3.104745411007087</v>
       </c>
       <c r="G25">
-        <v>0.000790782672425013</v>
+        <v>0.002521357817317704</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.537029680142098</v>
+        <v>1.501709203341633</v>
       </c>
       <c r="J25">
-        <v>0.1466694695601234</v>
+        <v>0.2278852735700951</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8923924172408846</v>
+        <v>0.5678122992734913</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_212/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_212/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.196211060729013</v>
+        <v>2.473710975632457</v>
       </c>
       <c r="C2">
-        <v>0.4980466827144596</v>
+        <v>1.051379619328657</v>
       </c>
       <c r="D2">
-        <v>0.07411838026734685</v>
+        <v>0.009926746378693174</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.028188097594182</v>
+        <v>2.910406698154446</v>
       </c>
       <c r="G2">
-        <v>0.002529173596291174</v>
+        <v>0.0008041912165505587</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.471627885806498</v>
+        <v>1.378071028831982</v>
       </c>
       <c r="J2">
-        <v>0.2266497200932918</v>
+        <v>0.1344935933273064</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5354950194227683</v>
+        <v>0.7451719054059751</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.113636235484307</v>
+        <v>2.13477408473733</v>
       </c>
       <c r="C3">
-        <v>0.4632007383351606</v>
+        <v>0.9069889730508862</v>
       </c>
       <c r="D3">
-        <v>0.07434240588349539</v>
+        <v>0.009601541472940234</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.979661089094506</v>
+        <v>2.655515000875994</v>
       </c>
       <c r="G3">
-        <v>0.002534834543910352</v>
+        <v>0.0008135326686898918</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.452773543071089</v>
+        <v>1.277479237532916</v>
       </c>
       <c r="J3">
-        <v>0.2260065236847808</v>
+        <v>0.1268041847836017</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5143002962252012</v>
+        <v>0.6482954780171397</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.063683016812433</v>
+        <v>1.929923547054528</v>
       </c>
       <c r="C4">
-        <v>0.4421243483516264</v>
+        <v>0.8200764166833494</v>
       </c>
       <c r="D4">
-        <v>0.07449433125143745</v>
+        <v>0.009411347900355693</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.951500897638425</v>
+        <v>2.505191576720833</v>
       </c>
       <c r="G4">
-        <v>0.002538491149949646</v>
+        <v>0.0008194093087572216</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.44194221481429</v>
+        <v>1.21869079063508</v>
       </c>
       <c r="J4">
-        <v>0.2257069101020335</v>
+        <v>0.1223226920100799</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5016328447759335</v>
+        <v>0.589963551098478</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.04351401761599</v>
+        <v>1.847144964424473</v>
       </c>
       <c r="C5">
-        <v>0.4336150654655171</v>
+        <v>0.78503560997666</v>
       </c>
       <c r="D5">
-        <v>0.07455987711947554</v>
+        <v>0.009335999265297268</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.940434067679391</v>
+        <v>2.44533026773162</v>
       </c>
       <c r="G5">
-        <v>0.002540026861854819</v>
+        <v>0.0008218416008065596</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.437714385395665</v>
+        <v>1.195409287239073</v>
       </c>
       <c r="J5">
-        <v>0.2256087264110462</v>
+        <v>0.1205517342906859</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4965575759082483</v>
+        <v>0.5664452344329192</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.040176264269519</v>
+        <v>1.83343861439252</v>
       </c>
       <c r="C6">
-        <v>0.4322068869024633</v>
+        <v>0.7792381699256623</v>
       </c>
       <c r="D6">
-        <v>0.07457098112943417</v>
+        <v>0.009323612016128635</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.938621036265559</v>
+        <v>2.435470356704073</v>
       </c>
       <c r="G6">
-        <v>0.002540284625710647</v>
+        <v>0.0008222478039437829</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.43702355242521</v>
+        <v>1.191582185078815</v>
       </c>
       <c r="J6">
-        <v>0.2255938656603291</v>
+        <v>0.1202608687680495</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4957200685592085</v>
+        <v>0.5625542660480249</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.063410253078985</v>
+        <v>1.928804483250019</v>
       </c>
       <c r="C7">
-        <v>0.4420092681843641</v>
+        <v>0.8196023960320247</v>
       </c>
       <c r="D7">
-        <v>0.07449520047845848</v>
+        <v>0.009410323262645015</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.951349995251647</v>
+        <v>2.504378809099464</v>
       </c>
       <c r="G7">
-        <v>0.002538511676249784</v>
+        <v>0.0008194419569600699</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.441884445477456</v>
+        <v>1.218374165714053</v>
       </c>
       <c r="J7">
-        <v>0.2257054892190098</v>
+        <v>0.1222985907181098</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5015640466938294</v>
+        <v>0.5896453991554509</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.167583503428489</v>
+        <v>2.356093668567837</v>
       </c>
       <c r="C8">
-        <v>0.4859650990424029</v>
+        <v>1.00119270666579</v>
       </c>
       <c r="D8">
-        <v>0.07419265365118655</v>
+        <v>0.00981249735001466</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.011114925163355</v>
+        <v>2.821137706061876</v>
       </c>
       <c r="G8">
-        <v>0.002531088071862427</v>
+        <v>0.0008073841990733682</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.464971371891266</v>
+        <v>1.342723466775226</v>
       </c>
       <c r="J8">
-        <v>0.2264081296860496</v>
+        <v>0.1317893406743167</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5281150747095325</v>
+        <v>0.7115067710509635</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.377850509083203</v>
+        <v>3.225934824501621</v>
       </c>
       <c r="C9">
-        <v>0.5747335072271085</v>
+        <v>1.374267321879131</v>
       </c>
       <c r="D9">
-        <v>0.0737125043882747</v>
+        <v>0.01068914165387103</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.14141830988865</v>
+        <v>3.499299789042084</v>
       </c>
       <c r="G9">
-        <v>0.002517957267249338</v>
+        <v>0.0007847532131446586</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.516224798044163</v>
+        <v>1.613854971503528</v>
       </c>
       <c r="J9">
-        <v>0.22854509582654</v>
+        <v>0.1525567046675818</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5829429188821678</v>
+        <v>0.9614792118125024</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.53606779350946</v>
+        <v>3.894148875061489</v>
       </c>
       <c r="C10">
-        <v>0.6415806582471077</v>
+        <v>1.66372368935771</v>
       </c>
       <c r="D10">
-        <v>0.07342753965917126</v>
+        <v>0.01140918288111159</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.245330336941265</v>
+        <v>4.044893146566437</v>
       </c>
       <c r="G10">
-        <v>0.00250916953943927</v>
+        <v>0.0007685802555005678</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.557623250504577</v>
+        <v>1.835502474236932</v>
       </c>
       <c r="J10">
-        <v>0.2305822885474456</v>
+        <v>0.1695287192288291</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6249340860542105</v>
+        <v>1.154821325530236</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.608876237071399</v>
+        <v>4.207020091927347</v>
       </c>
       <c r="C11">
-        <v>0.6723588939865976</v>
+        <v>1.800068469646362</v>
       </c>
       <c r="D11">
-        <v>0.07331238351497404</v>
+        <v>0.01175985774522292</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.29442042220623</v>
+        <v>4.30669626551034</v>
       </c>
       <c r="G11">
-        <v>0.002505356181775876</v>
+        <v>0.0007612783916478655</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.577290488648856</v>
+        <v>1.942739998249863</v>
       </c>
       <c r="J11">
-        <v>0.2316114979541553</v>
+        <v>0.1777268373208969</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6444141829459227</v>
+        <v>1.245667298165017</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.636568262021626</v>
+        <v>4.3270267923657</v>
       </c>
       <c r="C12">
-        <v>0.6840679036318988</v>
+        <v>1.852501437407398</v>
       </c>
       <c r="D12">
-        <v>0.07327083921269839</v>
+        <v>0.01189668439589919</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.313274462584502</v>
+        <v>4.408117704020242</v>
       </c>
       <c r="G12">
-        <v>0.002503938483345204</v>
+        <v>0.0007585171247464416</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.584859660669679</v>
+        <v>1.984420205788354</v>
       </c>
       <c r="J12">
-        <v>0.2320160442033909</v>
+        <v>0.180910187248891</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6518455675379329</v>
+        <v>1.280561618752188</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.630598888418547</v>
+        <v>4.30110880286162</v>
       </c>
       <c r="C13">
-        <v>0.6815437448105399</v>
+        <v>1.841171081380764</v>
       </c>
       <c r="D13">
-        <v>0.07327969507062093</v>
+        <v>0.01186702395458905</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.309202087643769</v>
+        <v>4.386167565284723</v>
       </c>
       <c r="G13">
-        <v>0.002504242641109639</v>
+        <v>0.0007591117173973972</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.583224070128821</v>
+        <v>1.975393327713178</v>
       </c>
       <c r="J13">
-        <v>0.2319282582490985</v>
+        <v>0.1802209072211909</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6502426480350891</v>
+        <v>1.273023230066428</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.61115204457991</v>
+        <v>4.216860901639109</v>
       </c>
       <c r="C14">
-        <v>0.6733211147125644</v>
+        <v>1.804365263308853</v>
       </c>
       <c r="D14">
-        <v>0.07330892440322856</v>
+        <v>0.01177102909761096</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.29596623347561</v>
+        <v>4.314992488604588</v>
       </c>
       <c r="G14">
-        <v>0.002505239019896038</v>
+        <v>0.0007610511706356839</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.577910762631134</v>
+        <v>1.946146634679195</v>
       </c>
       <c r="J14">
-        <v>0.2316444830553976</v>
+        <v>0.1779870880405454</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6450244693612746</v>
+        <v>1.248527714204741</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.599256086600576</v>
+        <v>4.165463832832415</v>
       </c>
       <c r="C15">
-        <v>0.6682915699543059</v>
+        <v>1.78192932792939</v>
       </c>
       <c r="D15">
-        <v>0.07332709630572865</v>
+        <v>0.01171277846359953</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.28789345014718</v>
+        <v>4.271703410575839</v>
       </c>
       <c r="G15">
-        <v>0.002505852756110213</v>
+        <v>0.0007622395014477021</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.574672092918405</v>
+        <v>1.928376597428368</v>
       </c>
       <c r="J15">
-        <v>0.2314725929758268</v>
+        <v>0.1766294143282181</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.641835316962684</v>
+        <v>1.233590175119829</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.531326472081332</v>
+        <v>3.873901546699585</v>
       </c>
       <c r="C16">
-        <v>0.6395767307022311</v>
+        <v>1.654917920624541</v>
       </c>
       <c r="D16">
-        <v>0.07343535505992804</v>
+        <v>0.01138678790051095</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.242159061000933</v>
+        <v>4.028084270812968</v>
       </c>
       <c r="G16">
-        <v>0.002509422445640618</v>
+        <v>0.0007690582201643992</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.556354883247565</v>
+        <v>1.828635541154625</v>
       </c>
       <c r="J16">
-        <v>0.2305170954477802</v>
+        <v>0.1690034025887925</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6236686516866428</v>
+        <v>1.148948863860156</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.489868336327845</v>
+        <v>3.69748259700026</v>
       </c>
       <c r="C17">
-        <v>0.622056269279085</v>
+        <v>1.578283392550475</v>
       </c>
       <c r="D17">
-        <v>0.0735054623984368</v>
+        <v>0.01119318364504185</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.214570744628134</v>
+        <v>3.882334240578757</v>
       </c>
       <c r="G17">
-        <v>0.002511659408873006</v>
+        <v>0.0007732526709722685</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.545332806784018</v>
+        <v>1.769189092115269</v>
       </c>
       <c r="J17">
-        <v>0.2299572259997831</v>
+        <v>0.1644542123837525</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6126210584287435</v>
+        <v>1.097816454046338</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.466101205775885</v>
+        <v>3.59683156507009</v>
       </c>
       <c r="C18">
-        <v>0.6120136538362431</v>
+        <v>1.534635862969708</v>
       </c>
       <c r="D18">
-        <v>0.07354714990478151</v>
+        <v>0.01108395369808335</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.198873799975303</v>
+        <v>3.799761632971808</v>
       </c>
       <c r="G18">
-        <v>0.002512963400262926</v>
+        <v>0.0007756706946880497</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.53907168809755</v>
+        <v>1.735590120362417</v>
       </c>
       <c r="J18">
-        <v>0.2296448455312046</v>
+        <v>0.1618818857825559</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6063023437313149</v>
+        <v>1.068673592622744</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.458067514239929</v>
+        <v>3.562886758805121</v>
       </c>
       <c r="C19">
-        <v>0.6086193284957631</v>
+        <v>1.519927856393849</v>
       </c>
       <c r="D19">
-        <v>0.07356149936039102</v>
+        <v>0.01104731630447642</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.193588384920645</v>
+        <v>3.772011054555634</v>
       </c>
       <c r="G19">
-        <v>0.002513407893841569</v>
+        <v>0.0007764904555378829</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.536965213929491</v>
+        <v>1.724311724949033</v>
       </c>
       <c r="J19">
-        <v>0.2295407327060701</v>
+        <v>0.1610182513590388</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6041690348362039</v>
+        <v>1.058850045033296</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.494273494640026</v>
+        <v>3.716176087621193</v>
       </c>
       <c r="C20">
-        <v>0.6239177556628874</v>
+        <v>1.586395817622417</v>
       </c>
       <c r="D20">
-        <v>0.07349785835992328</v>
+        <v>0.01121356845479138</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.217489835725985</v>
+        <v>3.897717080279648</v>
       </c>
       <c r="G20">
-        <v>0.002511419485852959</v>
+        <v>0.0007728056249526595</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.546497991144193</v>
+        <v>1.775454872574443</v>
       </c>
       <c r="J20">
-        <v>0.2300158266803294</v>
+        <v>0.1649338325407399</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6137934100609854</v>
+        <v>1.103231417249006</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.616860760361135</v>
+        <v>4.241562870625842</v>
       </c>
       <c r="C21">
-        <v>0.6757348289316951</v>
+        <v>1.815153110406754</v>
       </c>
       <c r="D21">
-        <v>0.07330028320272497</v>
+        <v>0.01179910921445781</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.299846717144192</v>
+        <v>4.33583355542703</v>
       </c>
       <c r="G21">
-        <v>0.002504945645725121</v>
+        <v>0.0007604814396409086</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.57946809670608</v>
+        <v>1.954706702398809</v>
       </c>
       <c r="J21">
-        <v>0.2317274322830798</v>
+        <v>0.1786409843277852</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6465556878802516</v>
+        <v>1.255708592712466</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.697684695031001</v>
+        <v>4.593991596793444</v>
       </c>
       <c r="C22">
-        <v>0.7099152233500945</v>
+        <v>1.969411065572388</v>
       </c>
       <c r="D22">
-        <v>0.07318317176927991</v>
+        <v>0.01220575462367712</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.355215926606689</v>
+        <v>4.635659432642171</v>
       </c>
       <c r="G22">
-        <v>0.002500868060832894</v>
+        <v>0.0007524465613267078</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.601725571143874</v>
+        <v>2.078191746356367</v>
       </c>
       <c r="J22">
-        <v>0.2329324056115638</v>
+        <v>0.1880652044920055</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6682866931401321</v>
+        <v>1.358278918535845</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.654482481348566</v>
+        <v>4.404972044632132</v>
       </c>
       <c r="C23">
-        <v>0.6916433905000758</v>
+        <v>1.886597156501352</v>
       </c>
       <c r="D23">
-        <v>0.07324458302940151</v>
+        <v>0.01198625100950856</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.325522047049191</v>
+        <v>4.47428137422861</v>
       </c>
       <c r="G23">
-        <v>0.002503030355170584</v>
+        <v>0.0007567346690985835</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.589780889617884</v>
+        <v>2.011650145137068</v>
       </c>
       <c r="J23">
-        <v>0.2322813648995208</v>
+        <v>0.1829889022335109</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.656659150877374</v>
+        <v>1.303239680649199</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.492281711761734</v>
+        <v>3.70772236625163</v>
       </c>
       <c r="C24">
-        <v>0.6230760838830633</v>
+        <v>1.582726920661969</v>
       </c>
       <c r="D24">
-        <v>0.07350129184012033</v>
+        <v>0.01120434606822052</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.216169604210592</v>
+        <v>3.890758719150995</v>
       </c>
       <c r="G24">
-        <v>0.002511527899286984</v>
+        <v>0.0007730077136517855</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.545970975873843</v>
+        <v>1.772620325229354</v>
       </c>
       <c r="J24">
-        <v>0.2299893037405383</v>
+        <v>0.1647168628882341</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.613263288078258</v>
+        <v>1.100782527371003</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.320318366065806</v>
+        <v>2.986277301842222</v>
       </c>
       <c r="C25">
-        <v>0.5504377488447858</v>
+        <v>1.271045719049653</v>
       </c>
       <c r="D25">
-        <v>0.07383040765625104</v>
+        <v>0.01044054023483643</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.104745411007087</v>
+        <v>3.308531940332642</v>
       </c>
       <c r="G25">
-        <v>0.002521357817317704</v>
+        <v>0.0007907826724247965</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.501709203341633</v>
+        <v>1.537029680142098</v>
       </c>
       <c r="J25">
-        <v>0.2278852735700951</v>
+        <v>0.1466694695601447</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5678122992734913</v>
+        <v>0.8923924172408917</v>
       </c>
       <c r="N25">
         <v>0</v>
